--- a/teaching/traditional_assets/database/data/brazil/brazil_entertainment.xlsx
+++ b/teaching/traditional_assets/database/data/brazil/brazil_entertainment.xlsx
@@ -591,118 +591,115 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0474</v>
+        <v>-0.216</v>
       </c>
       <c r="G2">
-        <v>0.07003921568627451</v>
+        <v>-0.1117647058823529</v>
       </c>
       <c r="H2">
-        <v>0.07003921568627451</v>
+        <v>-0.1117647058823529</v>
       </c>
       <c r="I2">
-        <v>-0.02091684763093323</v>
+        <v>-0.3642533936651584</v>
       </c>
       <c r="J2">
-        <v>-0.02091684763093323</v>
+        <v>-0.3642533936651584</v>
       </c>
       <c r="K2">
-        <v>-18.6</v>
+        <v>-10.2</v>
       </c>
       <c r="L2">
-        <v>-0.1458823529411765</v>
+        <v>-0.4615384615384615</v>
       </c>
       <c r="M2">
-        <v>0.956</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.009130850047755492</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-0.05139784946236559</v>
+        <v>-0</v>
       </c>
       <c r="P2">
-        <v>0.956</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.009130850047755492</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-0.05139784946236559</v>
+        <v>-0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>55.4</v>
+        <v>36.8</v>
       </c>
       <c r="V2">
-        <v>0.5291308500477555</v>
+        <v>0.7145631067961165</v>
       </c>
       <c r="W2">
-        <v>-0.222488038277512</v>
+        <v>-0.1522388059701492</v>
       </c>
       <c r="X2">
-        <v>0.1421401210485907</v>
+        <v>0.1178239745687822</v>
       </c>
       <c r="Y2">
-        <v>-0.3646281593261027</v>
+        <v>-0.2700627805389315</v>
       </c>
       <c r="Z2">
-        <v>3.322519694417068</v>
+        <v>1.099502487562189</v>
       </c>
       <c r="AA2">
-        <v>-0.06949663819889665</v>
+        <v>-0.4004975124378111</v>
       </c>
       <c r="AB2">
-        <v>0.1109487067761282</v>
+        <v>0.08809070229660761</v>
       </c>
       <c r="AC2">
-        <v>-0.1804453449750248</v>
+        <v>-0.4885882147344187</v>
       </c>
       <c r="AD2">
-        <v>38.6</v>
+        <v>28.6</v>
       </c>
       <c r="AE2">
-        <v>6.884490364719934</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>45.48449036471993</v>
+        <v>28.6</v>
       </c>
       <c r="AG2">
-        <v>-9.915509635280067</v>
+        <v>-8.199999999999996</v>
       </c>
       <c r="AH2">
-        <v>0.3028574405670105</v>
+        <v>0.3570536828963796</v>
       </c>
       <c r="AI2">
-        <v>0.404362327795067</v>
+        <v>0.3891156462585034</v>
       </c>
       <c r="AJ2">
-        <v>-0.1046110982622401</v>
+        <v>-0.1893764434180137</v>
       </c>
       <c r="AK2">
-        <v>-0.1736988378441962</v>
+        <v>-0.2234332425068118</v>
       </c>
       <c r="AL2">
-        <v>2.25</v>
+        <v>1.38</v>
       </c>
       <c r="AM2">
-        <v>-0.29</v>
+        <v>0.3099999999999998</v>
       </c>
       <c r="AN2">
-        <v>-257.3333333333335</v>
+        <v>-3.376623376623376</v>
       </c>
       <c r="AO2">
-        <v>-1.871111111111111</v>
+        <v>-5.833333333333334</v>
       </c>
       <c r="AP2">
-        <v>66.10339756853382</v>
+        <v>0.9681227863046039</v>
       </c>
       <c r="AQ2">
-        <v>14.51724137931034</v>
+        <v>-25.96774193548389</v>
       </c>
     </row>
     <row r="3">
@@ -722,118 +719,115 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0474</v>
+        <v>-0.216</v>
       </c>
       <c r="G3">
-        <v>0.07003921568627451</v>
+        <v>-0.1117647058823529</v>
       </c>
       <c r="H3">
-        <v>0.07003921568627451</v>
+        <v>-0.1117647058823529</v>
       </c>
       <c r="I3">
-        <v>-0.02091684763093323</v>
+        <v>-0.3642533936651584</v>
       </c>
       <c r="J3">
-        <v>-0.02091684763093323</v>
+        <v>-0.3642533936651584</v>
       </c>
       <c r="K3">
-        <v>-18.6</v>
+        <v>-10.2</v>
       </c>
       <c r="L3">
-        <v>-0.1458823529411765</v>
+        <v>-0.4615384615384615</v>
       </c>
       <c r="M3">
-        <v>0.956</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.009130850047755492</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0.05139784946236559</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.956</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.009130850047755492</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0.05139784946236559</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>55.4</v>
+        <v>36.8</v>
       </c>
       <c r="V3">
-        <v>0.5291308500477555</v>
+        <v>0.7145631067961165</v>
       </c>
       <c r="W3">
-        <v>-0.222488038277512</v>
+        <v>-0.1522388059701492</v>
       </c>
       <c r="X3">
-        <v>0.1421401210485907</v>
+        <v>0.1178239745687822</v>
       </c>
       <c r="Y3">
-        <v>-0.3646281593261027</v>
+        <v>-0.2700627805389315</v>
       </c>
       <c r="Z3">
-        <v>3.322519694417068</v>
+        <v>1.099502487562189</v>
       </c>
       <c r="AA3">
-        <v>-0.06949663819889665</v>
+        <v>-0.4004975124378111</v>
       </c>
       <c r="AB3">
-        <v>0.1109487067761282</v>
+        <v>0.08809070229660761</v>
       </c>
       <c r="AC3">
-        <v>-0.1804453449750248</v>
+        <v>-0.4885882147344187</v>
       </c>
       <c r="AD3">
-        <v>38.6</v>
+        <v>28.6</v>
       </c>
       <c r="AE3">
-        <v>6.884490364719934</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>45.48449036471993</v>
+        <v>28.6</v>
       </c>
       <c r="AG3">
-        <v>-9.915509635280067</v>
+        <v>-8.199999999999996</v>
       </c>
       <c r="AH3">
-        <v>0.3028574405670105</v>
+        <v>0.3570536828963796</v>
       </c>
       <c r="AI3">
-        <v>0.404362327795067</v>
+        <v>0.3891156462585034</v>
       </c>
       <c r="AJ3">
-        <v>-0.1046110982622401</v>
+        <v>-0.1893764434180137</v>
       </c>
       <c r="AK3">
-        <v>-0.1736988378441962</v>
+        <v>-0.2234332425068118</v>
       </c>
       <c r="AL3">
-        <v>2.25</v>
+        <v>1.38</v>
       </c>
       <c r="AM3">
-        <v>-0.29</v>
+        <v>0.3099999999999998</v>
       </c>
       <c r="AN3">
-        <v>-257.3333333333335</v>
+        <v>-3.376623376623376</v>
       </c>
       <c r="AO3">
-        <v>-1.871111111111111</v>
+        <v>-5.833333333333334</v>
       </c>
       <c r="AP3">
-        <v>66.10339756853382</v>
+        <v>0.9681227863046039</v>
       </c>
       <c r="AQ3">
-        <v>14.51724137931034</v>
+        <v>-25.96774193548389</v>
       </c>
     </row>
   </sheetData>
